--- a/tps16h.xlsx
+++ b/tps16h.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB4F994-4D15-4894-B12A-87380BC8BCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB48E7F7-7042-4162-B2F2-4501EF6CBFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="44">
   <si>
     <t>ASTT4</t>
   </si>
@@ -154,10 +156,10 @@
     <t>PEC Audio</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fact Tiers </t>
-  </si>
-  <si>
     <t xml:space="preserve">Fact Audio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fact Tiers </t>
   </si>
 </sst>
 </file>
@@ -522,7 +524,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -686,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -852,12 +854,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3610CD03-BF45-42BE-B151-BE4F30964BA9}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60A09FF-1AE8-496D-85EF-D27C30AFBB07}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00147AB7-D7C4-47E7-9EDE-914CBD5EB4AE}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tps16h.xlsx
+++ b/tps16h.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB48E7F7-7042-4162-B2F2-4501EF6CBFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FCF7C4-AE4A-4C57-BBFC-E0637918C5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil4" sheetId="4" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId4"/>
+    <sheet name="Feuil5" sheetId="5" r:id="rId2"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="44">
   <si>
     <t>ASTT4</t>
   </si>
@@ -523,8 +524,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,11 +855,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3610CD03-BF45-42BE-B151-BE4F30964BA9}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4563AC5-8C51-4242-A748-7F36FFBB2851}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -880,13 +881,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -906,13 +907,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -920,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -935,10 +936,10 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -946,24 +947,76 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -973,21 +1026,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60A09FF-1AE8-496D-85EF-D27C30AFBB07}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3610CD03-BF45-42BE-B151-BE4F30964BA9}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
+      <c r="B1" t="s">
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -999,13 +1062,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1013,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1025,13 +1088,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1039,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -1051,13 +1114,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1065,24 +1128,76 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1092,6 +1207,132 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60A09FF-1AE8-496D-85EF-D27C30AFBB07}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00147AB7-D7C4-47E7-9EDE-914CBD5EB4AE}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:G11"/>

--- a/tps16h.xlsx
+++ b/tps16h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FCF7C4-AE4A-4C57-BBFC-E0637918C5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBCB63A-5E9B-404F-98C2-ECAD10E43AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="48">
   <si>
     <t>ASTT4</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t xml:space="preserve">Fact Tiers </t>
+  </si>
+  <si>
+    <t>Remarque: b tsisy selection fa raisina daholo</t>
+  </si>
+  <si>
+    <t>a: misy critère de séléction</t>
+  </si>
+  <si>
+    <t>autre : + PEC caractère de selection</t>
+  </si>
+  <si>
+    <t>Raha hanampy critère de sélection dia soloina fotsiny ny colonne F</t>
   </si>
 </sst>
 </file>
@@ -522,10 +534,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F8BB29-5980-440A-84D9-512B52576D5F}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,9 +546,10 @@
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,8 +574,11 @@
       <c r="H1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -587,8 +603,11 @@
       <c r="H2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -613,8 +632,11 @@
       <c r="H3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -639,8 +661,11 @@
       <c r="H4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -666,7 +691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -692,7 +717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -718,7 +743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -744,7 +769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -770,7 +795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -796,7 +821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -822,7 +847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -858,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4563AC5-8C51-4242-A748-7F36FFBB2851}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/tps16h.xlsx
+++ b/tps16h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBCB63A-5E9B-404F-98C2-ECAD10E43AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29E60AE-1D24-476B-9BC7-044F2BB516A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="45">
   <si>
     <t>ASTT4</t>
   </si>
@@ -163,16 +163,7 @@
     <t xml:space="preserve">Fact Tiers </t>
   </si>
   <si>
-    <t>Remarque: b tsisy selection fa raisina daholo</t>
-  </si>
-  <si>
-    <t>a: misy critère de séléction</t>
-  </si>
-  <si>
-    <t>autre : + PEC caractère de selection</t>
-  </si>
-  <si>
-    <t>Raha hanampy critère de sélection dia soloina fotsiny ny colonne F</t>
+    <t>PECO</t>
   </si>
 </sst>
 </file>
@@ -534,10 +525,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F8BB29-5980-440A-84D9-512B52576D5F}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +540,7 @@
     <col min="9" max="9" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,11 +565,8 @@
       <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -603,11 +591,8 @@
       <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -632,11 +617,8 @@
       <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -653,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
@@ -661,11 +643,8 @@
       <c r="H4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -682,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -691,7 +670,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -717,7 +696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -743,7 +722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -769,7 +748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -795,7 +774,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -821,7 +800,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -847,7 +826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1362,8 +1341,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -1459,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>

--- a/tps16h.xlsx
+++ b/tps16h.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29E60AE-1D24-476B-9BC7-044F2BB516A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A6060E-8970-4686-AA1C-3AD5B60C349F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil5" sheetId="5" r:id="rId2"/>
-    <sheet name="Feuil4" sheetId="4" r:id="rId3"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId2"/>
+    <sheet name="Feuil5" sheetId="5" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId5"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="45">
   <si>
     <t>ASTT4</t>
   </si>
@@ -528,7 +529,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,11 +860,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4563AC5-8C51-4242-A748-7F36FFBB2851}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F02A1E-FD5E-47B4-9814-69D75D9725CD}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,8 +873,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -885,13 +886,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -899,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -914,10 +915,10 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -940,10 +941,10 @@
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -951,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -966,61 +967,9 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1030,6 +979,177 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4563AC5-8C51-4242-A748-7F36FFBB2851}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3610CD03-BF45-42BE-B151-BE4F30964BA9}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1210,7 +1330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60A09FF-1AE8-496D-85EF-D27C30AFBB07}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1336,12 +1456,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00147AB7-D7C4-47E7-9EDE-914CBD5EB4AE}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/tps16h.xlsx
+++ b/tps16h.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A6060E-8970-4686-AA1C-3AD5B60C349F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B013D1-A646-43D6-8FD8-401B41AFF984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId2"/>
-    <sheet name="Feuil5" sheetId="5" r:id="rId3"/>
-    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId5"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId6"/>
+    <sheet name="Feuil9" sheetId="9" r:id="rId2"/>
+    <sheet name="Feuil8" sheetId="8" r:id="rId3"/>
+    <sheet name="Feuil7" sheetId="7" r:id="rId4"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId5"/>
+    <sheet name="Feuil5" sheetId="5" r:id="rId6"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId7"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId8"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="45">
   <si>
     <t>ASTT4</t>
   </si>
@@ -529,7 +532,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,6 +863,285 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED25ACE-8885-4ED9-A33B-79919B9587B6}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B89D42-9E89-4468-8DE1-C2887777AFEC}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF8FB84-91FF-4D5C-BB9D-20168C45D4AE}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F02A1E-FD5E-47B4-9814-69D75D9725CD}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -978,11 +1260,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4563AC5-8C51-4242-A748-7F36FFBB2851}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +1431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3610CD03-BF45-42BE-B151-BE4F30964BA9}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1330,7 +1612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60A09FF-1AE8-496D-85EF-D27C30AFBB07}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1456,7 +1738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00147AB7-D7C4-47E7-9EDE-914CBD5EB4AE}">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:G11"/>

--- a/tps16h.xlsx
+++ b/tps16h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B013D1-A646-43D6-8FD8-401B41AFF984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DA0DDD-F563-4B8A-A53B-33DC087A01AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Feuil4" sheetId="4" r:id="rId7"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId8"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId9"/>
+    <sheet name="Feuil12" sheetId="12" r:id="rId10"/>
+    <sheet name="Feuil11" sheetId="11" r:id="rId11"/>
+    <sheet name="Feuil10" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="45">
   <si>
     <t>ASTT4</t>
   </si>
@@ -862,11 +865,240 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07714A29-5113-4FC4-ACFB-F79E0250F256}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE5943C-42FF-4A46-8A78-645957352C2B}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A823A1-D877-4E5D-B2DA-F1398F015080}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED25ACE-8885-4ED9-A33B-79919B9587B6}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1744,7 +1976,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tps16h.xlsx
+++ b/tps16h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DA0DDD-F563-4B8A-A53B-33DC087A01AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0304810F-2C2E-4EFC-8B28-D3D01CD8CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,11 +869,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07714A29-5113-4FC4-ACFB-F79E0250F256}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="39" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1667,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3610CD03-BF45-42BE-B151-BE4F30964BA9}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,7 +1853,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tps16h.xlsx
+++ b/tps16h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0304810F-2C2E-4EFC-8B28-D3D01CD8CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8511FA-4372-4E76-A2E0-6CAA22B73EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1671,7 +1671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3610CD03-BF45-42BE-B151-BE4F30964BA9}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1979,8 +1979,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tps16h.xlsx
+++ b/tps16h.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8511FA-4372-4E76-A2E0-6CAA22B73EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEBBF92-9D19-40CA-9D09-4ECC85217CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{EFD70FE2-E31F-4F0E-99EF-030E3C88B332}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="45">
   <si>
     <t>ASTT4</t>
   </si>
@@ -1977,10 +1977,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00147AB7-D7C4-47E7-9EDE-914CBD5EB4AE}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,7 +1995,7 @@
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2007,10 +2007,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -2030,10 +2030,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -2053,18 +2053,18 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -2079,15 +2079,15 @@
         <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -2099,10 +2099,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
@@ -2122,10 +2122,10 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,7 +2133,7 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -2145,10 +2145,10 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
@@ -2168,10 +2168,10 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2179,7 +2179,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
@@ -2194,7 +2194,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -2217,7 +2217,7 @@
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,21 +2225,44 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
         <v>25</v>
       </c>
     </row>
